--- a/April/Daily Work Update SathishMadhiyalagan.xlsx
+++ b/April/Daily Work Update SathishMadhiyalagan.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeTrack\codeTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E762707-88DA-4726-BB5E-04EF822A0C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="April-25" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -448,13 +442,16 @@
   </si>
   <si>
     <t>7.30AM</t>
+  </si>
+  <si>
+    <t>pricing Excel sheet date issues fixing done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -610,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -787,30 +784,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="46.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="2" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,12 +828,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -844,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -864,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="E8">
         <v>2</v>
       </c>
@@ -875,7 +872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="E9">
         <v>3</v>
       </c>
@@ -886,7 +883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="E10">
         <v>4</v>
       </c>
@@ -897,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="E11">
         <v>5</v>
       </c>
@@ -911,7 +908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -934,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="E14">
         <v>2</v>
       </c>
@@ -945,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="E15">
         <v>3</v>
       </c>
@@ -956,7 +953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="E16">
         <v>4</v>
       </c>
@@ -967,7 +964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="E17">
         <v>5</v>
       </c>
@@ -978,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -997,7 +994,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="E22">
         <v>2</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="E23">
         <v>3</v>
       </c>
@@ -1045,7 +1042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="E24">
         <v>4</v>
       </c>
@@ -1056,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="E25">
         <v>5</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="E26">
         <v>6</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="E29">
         <v>2</v>
       </c>
@@ -1115,7 +1112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="E30">
         <v>3</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="E31">
         <v>4</v>
       </c>
@@ -1137,7 +1134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="E32">
         <v>5</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="E33">
         <v>6</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="E36">
         <v>2</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="E37">
         <v>3</v>
       </c>
@@ -1207,7 +1204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="E38">
         <v>4</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="E41">
         <v>2</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="E42">
         <v>3</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="E43">
         <v>4</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="E44">
         <v>5</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>71</v>
@@ -1310,7 +1307,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="E48">
         <v>2</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="E49">
         <v>3</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="E50">
         <v>4</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="E51">
         <v>5</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="E52">
         <v>6</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="E53">
         <v>7</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="E56">
         <v>2</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="E57">
         <v>3</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="E58">
         <v>4</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="E59">
         <v>5</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="E60">
         <v>6</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="1" t="s">
         <v>92</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="E63">
         <v>2</v>
       </c>
@@ -1511,7 +1508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="E64">
         <v>3</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="E65">
         <v>4</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="E66">
         <v>5</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="E67">
         <v>6</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="B69" s="1" t="s">
         <v>106</v>
       </c>
@@ -1575,7 +1572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="E70">
         <v>2</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="E71">
         <v>3</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="E72">
         <v>4</v>
       </c>
@@ -1608,7 +1605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="E73">
         <v>5</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="B75" s="1" t="s">
         <v>114</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="E76">
         <v>2</v>
       </c>
@@ -1656,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>117</v>
@@ -1675,7 +1672,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
@@ -1695,7 +1692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="E81">
         <v>2</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="E82">
         <v>3</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="B84" s="1" t="s">
         <v>123</v>
       </c>
@@ -1737,7 +1734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="E85">
         <v>2</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="E86">
         <v>3</v>
       </c>
@@ -1759,7 +1756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="B88" s="1" t="s">
         <v>129</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="E89">
         <v>2</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="E90">
         <v>3</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="E91">
         <v>4</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="E92">
         <v>5</v>
       </c>
@@ -1823,7 +1820,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
+      <c r="E93">
+        <v>6</v>
+      </c>
+      <c r="F93" t="s">
+        <v>141</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
         <v>138</v>
@@ -1842,7 +1850,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="B96" s="1" t="s">
         <v>139</v>
       </c>

--- a/April/Daily Work Update SathishMadhiyalagan.xlsx
+++ b/April/Daily Work Update SathishMadhiyalagan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -445,6 +445,36 @@
   </si>
   <si>
     <t>pricing Excel sheet date issues fixing done</t>
+  </si>
+  <si>
+    <t>Pricing Excel sheet date issues another formate fixing</t>
+  </si>
+  <si>
+    <t>StandUp Meeting</t>
+  </si>
+  <si>
+    <t>15mints</t>
+  </si>
+  <si>
+    <t>Pricing Excel sheet empty place applying background color and text Blank</t>
+  </si>
+  <si>
+    <t>3.45hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add new docs for backend </t>
+  </si>
+  <si>
+    <t>checking blank place how to handle</t>
+  </si>
+  <si>
+    <t>45mints</t>
+  </si>
+  <si>
+    <t>03,04.05.2025</t>
+  </si>
+  <si>
+    <t>05.05.2025</t>
   </si>
 </sst>
 </file>
@@ -784,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M96"/>
+  <dimension ref="A2:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1857,6 +1887,90 @@
       <c r="C96" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>143</v>
+      </c>
+      <c r="G97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>145</v>
+      </c>
+      <c r="G98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>147</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="B104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
